--- a/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 18,25</t>
+          <t>-1,27; 17,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 35,16</t>
+          <t>13,27; 34,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 1,27</t>
+          <t>-13,14; 1,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,99</t>
+          <t>-2,76; 16,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 26,55</t>
+          <t>5,64; 26,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 12,72</t>
+          <t>-4,27; 13,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 14,78</t>
+          <t>0,6; 14,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 27,67</t>
+          <t>12,32; 27,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,95</t>
+          <t>-5,47; 5,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 287,53</t>
+          <t>-11,03; 272,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,83; 565,79</t>
+          <t>82,33; 520,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,03; 54,77</t>
+          <t>-89,31; 50,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 173,68</t>
+          <t>-16,71; 167,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,7; 265,91</t>
+          <t>27,81; 288,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 131,86</t>
+          <t>-22,32; 127,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 165,57</t>
+          <t>3,23; 158,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,16; 292,79</t>
+          <t>82,23; 297,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 63,01</t>
+          <t>-36,36; 63,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,95</t>
+          <t>9,31; 19,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 24,48</t>
+          <t>13,97; 24,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,87</t>
+          <t>-6,24; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 11,68</t>
+          <t>1,24; 12,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 15,1</t>
+          <t>3,89; 15,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -6,67</t>
+          <t>-15,33; -5,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,04</t>
+          <t>7,04; 14,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,13</t>
+          <t>10,86; 18,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -3,23</t>
+          <t>-9,38; -3,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,37; 147,65</t>
+          <t>53,89; 146,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,78; 184,85</t>
+          <t>79,08; 183,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 21,32</t>
+          <t>-35,37; 20,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 50,26</t>
+          <t>4,53; 55,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 64,27</t>
+          <t>14,17; 65,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,99; -28,07</t>
+          <t>-53,09; -24,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 73,82</t>
+          <t>30,2; 75,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,7; 95,55</t>
+          <t>48,01; 95,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -17,54</t>
+          <t>-42,12; -15,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,33</t>
+          <t>14,64; 22,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,37</t>
+          <t>13,28; 21,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,79</t>
+          <t>-8,77; -2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,71</t>
+          <t>5,0; 13,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 12,81</t>
+          <t>4,59; 12,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -8,59</t>
+          <t>-15,56; -8,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,81</t>
+          <t>11,09; 16,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,99</t>
+          <t>10,28; 16,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -6,18</t>
+          <t>-10,96; -6,19</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,82; 148,0</t>
+          <t>79,68; 151,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,08; 145,48</t>
+          <t>71,54; 142,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,53; -11,34</t>
+          <t>-48,37; -13,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 55,74</t>
+          <t>17,55; 55,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 53,32</t>
+          <t>16,33; 54,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,89; -35,56</t>
+          <t>-54,92; -35,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,71; 83,01</t>
+          <t>47,97; 83,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,7; 78,82</t>
+          <t>44,83; 81,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,58; -30,68</t>
+          <t>-48,38; -30,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,49</t>
+          <t>10,63; 20,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,89; 27,72</t>
+          <t>17,72; 27,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -1,27</t>
+          <t>-10,36; -1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 11,13</t>
+          <t>1,34; 11,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,79; 21,11</t>
+          <t>11,09; 21,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -11,48</t>
+          <t>-22,25; -11,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,28</t>
+          <t>7,61; 14,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,04</t>
+          <t>15,56; 22,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -7,62</t>
+          <t>-15,12; -7,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,49; 119,25</t>
+          <t>47,58; 118,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>81,01; 161,93</t>
+          <t>78,92; 158,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,32; -7,35</t>
+          <t>-47,71; -8,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 38,78</t>
+          <t>4,11; 40,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,38; 76,13</t>
+          <t>33,46; 77,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,27; -39,95</t>
+          <t>-70,58; -39,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,04; 60,9</t>
+          <t>28,38; 63,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,55; 99,64</t>
+          <t>58,47; 98,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,19; -32,86</t>
+          <t>-56,72; -33,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,36</t>
+          <t>-1,42; 6,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,51</t>
+          <t>0,16; 7,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -2,16</t>
+          <t>-9,49; -1,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -1,5</t>
+          <t>-9,13; -1,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 2,71</t>
+          <t>-5,59; 2,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -6,22</t>
+          <t>-14,99; -6,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,44</t>
+          <t>-4,12; 1,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,1</t>
+          <t>-1,54; 4,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,72</t>
+          <t>-11,09; -5,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 32,8</t>
+          <t>-5,92; 33,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 38,81</t>
+          <t>0,61; 42,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,93; -10,99</t>
+          <t>-41,23; -9,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -5,25</t>
+          <t>-28,52; -3,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 9,43</t>
+          <t>-17,45; 10,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,4; -20,94</t>
+          <t>-46,43; -21,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 6,01</t>
+          <t>-15,1; 6,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 16,68</t>
+          <t>-5,61; 17,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -22,79</t>
+          <t>-41,12; -21,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>10,37; 14,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>13,31; 17,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,98</t>
+          <t>-6,75; -2,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>1,52; 6,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>5,74; 10,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -9,47</t>
+          <t>-14,41; -9,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>6,49; 9,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>9,92; 13,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -6,71</t>
+          <t>-9,77; -6,93</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>54,05; 86,69</t>
+          <t>54,31; 85,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>68,16; 103,49</t>
+          <t>69,72; 101,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -17,46</t>
+          <t>-35,28; -16,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,37; 22,54</t>
+          <t>5,35; 23,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,59; 37,85</t>
+          <t>20,08; 38,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -35,72</t>
+          <t>-49,61; -35,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,52; 42,98</t>
+          <t>27,13; 43,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,88</t>
+          <t>42,06; 59,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -30,13</t>
+          <t>-41,33; -30,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 17,62</t>
+          <t>-0,31; 17,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 34,08</t>
+          <t>13,12; 35,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 1,23</t>
+          <t>-13,85; 0,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 16,62</t>
+          <t>-2,62; 17,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 26,82</t>
+          <t>5,84; 27,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 13,21</t>
+          <t>-4,18; 13,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 14,59</t>
+          <t>0,99; 15,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,32; 27,41</t>
+          <t>12,9; 27,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 5,93</t>
+          <t>-5,37; 6,45</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 272,9</t>
+          <t>-6,73; 297,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,33; 520,46</t>
+          <t>77,42; 594,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,31; 50,28</t>
+          <t>-90,91; 28,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 167,64</t>
+          <t>-14,12; 164,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,81; 288,0</t>
+          <t>27,24; 270,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 127,02</t>
+          <t>-21,52; 146,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 158,92</t>
+          <t>3,6; 163,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,23; 297,05</t>
+          <t>78,09; 302,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 63,05</t>
+          <t>-35,09; 73,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,51</t>
+          <t>9,61; 19,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 24,71</t>
+          <t>14,41; 24,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 2,56</t>
+          <t>-6,21; 2,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,64</t>
+          <t>0,76; 11,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 15,05</t>
+          <t>4,23; 15,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -5,73</t>
+          <t>-15,16; -6,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 14,13</t>
+          <t>7,15; 14,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 18,2</t>
+          <t>11,15; 18,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -3,03</t>
+          <t>-9,82; -3,03</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,89; 146,15</t>
+          <t>53,11; 149,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,08; 183,39</t>
+          <t>81,52; 188,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 20,39</t>
+          <t>-35,0; 22,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 55,28</t>
+          <t>2,61; 48,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 65,88</t>
+          <t>14,9; 65,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,09; -24,41</t>
+          <t>-53,15; -27,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,2; 75,26</t>
+          <t>31,99; 75,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,01; 95,82</t>
+          <t>49,82; 96,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,12; -15,37</t>
+          <t>-43,55; -16,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,66</t>
+          <t>14,34; 22,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 21,18</t>
+          <t>13,61; 21,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -2,02</t>
+          <t>-9,09; -2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,39</t>
+          <t>5,07; 13,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,97</t>
+          <t>4,62; 13,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -8,48</t>
+          <t>-15,7; -8,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 16,83</t>
+          <t>10,93; 16,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,02</t>
+          <t>10,02; 15,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -6,19</t>
+          <t>-11,14; -6,09</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>79,68; 151,0</t>
+          <t>76,96; 150,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,54; 142,57</t>
+          <t>71,21; 140,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,37; -13,62</t>
+          <t>-48,87; -13,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,55; 55,34</t>
+          <t>17,46; 56,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,33; 54,19</t>
+          <t>15,76; 54,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,92; -35,3</t>
+          <t>-55,21; -35,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,97; 83,9</t>
+          <t>46,2; 82,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,83; 81,07</t>
+          <t>43,68; 78,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,38; -30,72</t>
+          <t>-48,56; -30,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 20,16</t>
+          <t>11,06; 20,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,72; 27,26</t>
+          <t>18,7; 28,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -1,42</t>
+          <t>-9,81; -1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,38</t>
+          <t>0,72; 11,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,09; 21,57</t>
+          <t>11,28; 21,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -11,12</t>
+          <t>-22,3; -11,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 14,75</t>
+          <t>7,37; 14,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,56; 22,86</t>
+          <t>15,84; 23,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,12; -7,63</t>
+          <t>-14,62; -7,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,58; 118,14</t>
+          <t>50,2; 119,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,92; 158,54</t>
+          <t>83,58; 160,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,71; -8,02</t>
+          <t>-44,84; -6,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 40,92</t>
+          <t>2,08; 39,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,46; 77,25</t>
+          <t>33,65; 75,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,58; -39,89</t>
+          <t>-69,12; -39,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,38; 63,54</t>
+          <t>27,43; 61,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,47; 98,74</t>
+          <t>58,85; 100,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -33,13</t>
+          <t>-55,83; -32,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,3</t>
+          <t>-1,6; 5,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 7,78</t>
+          <t>0,16; 7,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -1,75</t>
+          <t>-9,25; -1,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -1,15</t>
+          <t>-9,18; -1,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 2,97</t>
+          <t>-5,2; 3,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -6,46</t>
+          <t>-14,97; -6,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,45</t>
+          <t>-4,73; 0,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,02</t>
+          <t>-1,67; 3,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -5,16</t>
+          <t>-10,93; -5,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 33,14</t>
+          <t>-7,24; 30,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,61; 42,29</t>
+          <t>0,67; 41,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,23; -9,37</t>
+          <t>-41,48; -9,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,52; -3,99</t>
+          <t>-28,6; -4,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 10,36</t>
+          <t>-16,38; 11,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,43; -21,26</t>
+          <t>-46,29; -21,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 6,09</t>
+          <t>-17,41; 3,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 17,46</t>
+          <t>-6,41; 15,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,12; -21,36</t>
+          <t>-40,93; -20,77</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,71</t>
+          <t>10,59; 15,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,57</t>
+          <t>13,6; 18,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -2,83</t>
+          <t>-6,58; -2,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,06</t>
+          <t>1,61; 5,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,18</t>
+          <t>5,67; 10,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -9,71</t>
+          <t>-14,03; -9,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,64</t>
+          <t>6,46; 9,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,29</t>
+          <t>9,98; 13,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -6,93</t>
+          <t>-9,77; -6,71</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>54,31; 85,81</t>
+          <t>55,94; 88,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>69,72; 101,54</t>
+          <t>71,46; 107,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,28; -16,22</t>
+          <t>-34,99; -15,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,35; 23,43</t>
+          <t>5,65; 22,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,08; 38,01</t>
+          <t>19,61; 37,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,61; -35,9</t>
+          <t>-49,06; -35,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,13; 43,57</t>
+          <t>26,74; 42,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>42,06; 59,64</t>
+          <t>41,86; 58,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -30,62</t>
+          <t>-41,2; -30,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 17,61</t>
+          <t>0,59; 18,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 35,65</t>
+          <t>13,51; 35,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 0,77</t>
+          <t>-13,01; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 17,41</t>
+          <t>-3,12; 16,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 27,34</t>
+          <t>4,71; 26,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 13,1</t>
+          <t>-3,75; 12,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 15,44</t>
+          <t>1,28; 14,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 27,67</t>
+          <t>13,17; 27,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 6,45</t>
+          <t>-5,34; 5,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 297,29</t>
+          <t>-0,67; 287,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 594,54</t>
+          <t>83,83; 565,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,91; 28,59</t>
+          <t>-89,03; 54,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 164,94</t>
+          <t>-20,42; 173,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,24; 270,74</t>
+          <t>20,7; 265,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 146,33</t>
+          <t>-19,7; 131,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 163,82</t>
+          <t>8,0; 165,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,09; 302,02</t>
+          <t>82,16; 292,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 73,94</t>
+          <t>-35,73; 63,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 19,43</t>
+          <t>10,02; 19,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,7</t>
+          <t>14,34; 24,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 2,91</t>
+          <t>-6,42; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 11,64</t>
+          <t>0,82; 11,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 15,42</t>
+          <t>4,07; 15,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -6,55</t>
+          <t>-15,43; -6,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 14,22</t>
+          <t>6,94; 14,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,15; 18,29</t>
+          <t>10,89; 18,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -3,03</t>
+          <t>-9,31; -3,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,11; 149,59</t>
+          <t>54,37; 147,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,52; 188,63</t>
+          <t>78,78; 184,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 22,0</t>
+          <t>-36,3; 21,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 48,16</t>
+          <t>2,87; 50,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 65,52</t>
+          <t>13,57; 64,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,15; -27,62</t>
+          <t>-53,99; -28,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,99; 75,72</t>
+          <t>31,54; 73,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,82; 96,92</t>
+          <t>48,7; 95,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,55; -16,08</t>
+          <t>-42,41; -17,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,34; 22,27</t>
+          <t>14,64; 22,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 21,38</t>
+          <t>13,47; 21,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -2,07</t>
+          <t>-8,71; -1,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 13,82</t>
+          <t>4,65; 13,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 13,02</t>
+          <t>4,56; 12,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -8,5</t>
+          <t>-15,5; -8,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,6</t>
+          <t>10,92; 16,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,72</t>
+          <t>10,14; 15,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -6,09</t>
+          <t>-11,09; -6,18</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,96; 150,61</t>
+          <t>78,82; 148,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,21; 140,89</t>
+          <t>74,08; 145,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -13,84</t>
+          <t>-47,53; -11,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 56,63</t>
+          <t>16,03; 55,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 54,12</t>
+          <t>15,84; 53,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -35,75</t>
+          <t>-54,89; -35,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,2; 82,3</t>
+          <t>46,71; 83,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,68; 78,38</t>
+          <t>43,7; 78,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,56; -30,58</t>
+          <t>-48,58; -30,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,06; 20,67</t>
+          <t>10,74; 20,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,7; 28,0</t>
+          <t>17,89; 27,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -1,38</t>
+          <t>-9,99; -1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 11,47</t>
+          <t>0,95; 11,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,28; 21,23</t>
+          <t>10,79; 21,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -11,28</t>
+          <t>-22,02; -11,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,37; 14,42</t>
+          <t>7,55; 14,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,19</t>
+          <t>15,92; 23,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -7,61</t>
+          <t>-14,7; -7,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,2; 119,42</t>
+          <t>49,49; 119,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,58; 160,7</t>
+          <t>81,01; 161,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,84; -6,5</t>
+          <t>-46,32; -7,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 39,96</t>
+          <t>2,31; 38,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,65; 75,43</t>
+          <t>31,38; 76,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,12; -39,95</t>
+          <t>-68,27; -39,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,43; 61,89</t>
+          <t>28,04; 60,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,85; 100,28</t>
+          <t>59,55; 99,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,83; -32,69</t>
+          <t>-56,19; -32,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,96</t>
+          <t>-1,24; 6,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 7,73</t>
+          <t>-0,39; 7,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -1,86</t>
+          <t>-9,43; -2,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -1,35</t>
+          <t>-9,01; -1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,19</t>
+          <t>-5,24; 2,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -6,09</t>
+          <t>-14,94; -6,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,77</t>
+          <t>-4,62; 1,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,97</t>
+          <t>-1,9; 4,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -5,1</t>
+          <t>-11,22; -5,72</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 30,8</t>
+          <t>-5,58; 32,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,67; 41,02</t>
+          <t>-1,82; 38,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,48; -9,61</t>
+          <t>-41,93; -10,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,6; -4,83</t>
+          <t>-28,33; -5,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 11,19</t>
+          <t>-16,6; 9,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,29; -21,01</t>
+          <t>-46,4; -20,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 3,23</t>
+          <t>-16,8; 6,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 15,86</t>
+          <t>-6,91; 16,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,93; -20,77</t>
+          <t>-41,49; -22,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,02</t>
+          <t>10,5; 14,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,07</t>
+          <t>13,03; 17,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,71</t>
+          <t>-6,88; -2,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,97</t>
+          <t>1,62; 6,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,1</t>
+          <t>5,67; 10,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -9,46</t>
+          <t>-14,28; -9,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,56</t>
+          <t>6,64; 9,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,15</t>
+          <t>9,96; 13,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -6,71</t>
+          <t>-9,91; -6,71</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>55,94; 88,94</t>
+          <t>54,05; 86,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>71,46; 107,05</t>
+          <t>68,16; 103,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -15,7</t>
+          <t>-36,14; -17,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,65; 22,2</t>
+          <t>5,37; 22,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,61; 37,75</t>
+          <t>19,59; 37,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -35,46</t>
+          <t>-49,8; -35,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,74; 42,93</t>
+          <t>27,52; 42,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>41,86; 58,72</t>
+          <t>41,99; 58,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -30,23</t>
+          <t>-41,29; -30,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>13,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,83</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,35</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,13</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-5,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 18,25</t>
+          <t>9,7; 18,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 35,16</t>
+          <t>15,6; 24,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 1,27</t>
+          <t>-6,56; 0,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,99</t>
+          <t>1,55; 10,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 26,55</t>
+          <t>5,6; 15,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 12,72</t>
+          <t>-13,72; -4,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 14,78</t>
+          <t>6,82; 13,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 27,67</t>
+          <t>12,17; 18,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,95</t>
+          <t>-8,8; -3,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>231,36%</t>
+          <t>137,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-58,15%</t>
+          <t>-19,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>114,3%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>-36,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>52,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>163,9%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-29,49%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 287,53</t>
+          <t>57,52; 145,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,83; 565,79</t>
+          <t>91,3; 195,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,03; 54,77</t>
+          <t>-40,6; 7,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 173,68</t>
+          <t>6,24; 48,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,7; 265,91</t>
+          <t>21,0; 69,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 131,86</t>
+          <t>-52,38; -22,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 165,57</t>
+          <t>31,84; 74,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,16; 292,79</t>
+          <t>57,8; 105,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 63,01</t>
+          <t>-42,1; -16,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>18,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,37</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>13,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,47</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-10,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,95</t>
+          <t>14,64; 22,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 24,48</t>
+          <t>13,47; 21,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,87</t>
+          <t>-12,51; -3,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 11,68</t>
+          <t>4,65; 13,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 15,1</t>
+          <t>4,56; 12,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -6,67</t>
+          <t>-15,65; -8,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,04</t>
+          <t>10,92; 16,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,13</t>
+          <t>10,14; 15,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -3,23</t>
+          <t>-14,09; -7,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>111,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>125,18%</t>
+          <t>103,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>-44,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,17%</t>
+          <t>-46,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>60,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-29,71%</t>
+          <t>-46,83%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,37; 147,65</t>
+          <t>78,82; 148,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,78; 184,85</t>
+          <t>74,08; 145,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 21,32</t>
+          <t>-70,37; -23,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 50,26</t>
+          <t>16,03; 55,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 64,27</t>
+          <t>15,84; 53,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,99; -28,07</t>
+          <t>-55,51; -36,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 73,82</t>
+          <t>46,71; 83,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,7; 95,55</t>
+          <t>43,7; 78,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -17,54</t>
+          <t>-63,82; -35,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,67</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>22,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>-17,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>19,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>-11,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,33</t>
+          <t>10,74; 20,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,37</t>
+          <t>17,89; 27,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,79</t>
+          <t>-10,24; -1,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,71</t>
+          <t>0,95; 11,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 12,81</t>
+          <t>10,79; 21,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -8,59</t>
+          <t>-26,03; -12,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,81</t>
+          <t>7,55; 14,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,99</t>
+          <t>15,92; 23,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -6,18</t>
+          <t>-17,14; -8,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>111,48%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>103,51%</t>
+          <t>115,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,06%</t>
+          <t>-31,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-45,97%</t>
+          <t>-57,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>64,84%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>77,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,12%</t>
+          <t>-46,98%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,82; 148,0</t>
+          <t>49,49; 119,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,08; 145,48</t>
+          <t>81,01; 161,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,53; -11,34</t>
+          <t>-47,2; -9,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 55,74</t>
+          <t>2,31; 38,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 53,32</t>
+          <t>31,38; 76,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,89; -35,56</t>
+          <t>-77,85; -40,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,71; 83,01</t>
+          <t>28,04; 60,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,7; 78,82</t>
+          <t>59,55; 99,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,58; -30,68</t>
+          <t>-67,13; -35,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,72</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,1</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,98</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,46</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,88</t>
+          <t>-6,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,49</t>
+          <t>-1,24; 6,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,89; 27,72</t>
+          <t>-0,39; 7,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -1,27</t>
+          <t>-9,83; -2,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 11,13</t>
+          <t>-9,01; -1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,79; 21,11</t>
+          <t>-5,24; 2,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -11,48</t>
+          <t>-13,89; 10,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,28</t>
+          <t>-4,62; 1,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,04</t>
+          <t>-1,9; 4,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -7,62</t>
+          <t>-10,26; 4,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>115,66%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,9%</t>
+          <t>-28,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-52,35%</t>
+          <t>-23,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>-6,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>77,62%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-25,07%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,49; 119,25</t>
+          <t>-5,58; 32,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>81,01; 161,93</t>
+          <t>-1,82; 38,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,32; -7,35</t>
+          <t>-43,54; -13,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 38,78</t>
+          <t>-28,33; -5,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,38; 76,13</t>
+          <t>-16,6; 9,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,27; -39,95</t>
+          <t>-44,75; 37,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,04; 60,9</t>
+          <t>-16,8; 6,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,55; 99,64</t>
+          <t>-6,91; 16,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,19; -32,86</t>
+          <t>-39,12; 17,46</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>15,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-8,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,36</t>
+          <t>10,5; 14,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,51</t>
+          <t>13,03; 17,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -2,16</t>
+          <t>-9,08; -3,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -1,5</t>
+          <t>1,62; 6,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 2,71</t>
+          <t>5,67; 10,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -6,22</t>
+          <t>-14,41; -5,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,44</t>
+          <t>6,64; 9,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,1</t>
+          <t>9,96; 13,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,72</t>
+          <t>-10,69; -5,66</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>-32,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-36,68%</t>
+          <t>-40,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-32,57%</t>
+          <t>-37,1%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 32,8</t>
+          <t>54,05; 86,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 38,81</t>
+          <t>68,16; 103,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,93; -10,99</t>
+          <t>-48,14; -23,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -5,25</t>
+          <t>5,37; 22,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 9,43</t>
+          <t>19,59; 37,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,4; -20,94</t>
+          <t>-50,32; -20,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 6,01</t>
+          <t>27,52; 42,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 16,68</t>
+          <t>41,99; 58,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -22,79</t>
+          <t>-44,96; -24,1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>15,42</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,84</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-11,77</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>8,11</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>11,62</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-8,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>10,5; 14,8</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>13,03; 17,53</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; -2,98</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 6,09</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 10,15</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-14,28; -9,47</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,64; 9,61</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 13,08</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; -6,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>69,37%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>85,28%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-26,8%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>13,62%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>28,36%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-42,29%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>35,25%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>50,48%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-35,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>54,05; 86,69</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>68,16; 103,49</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-36,14; -17,46</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 22,54</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 37,85</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-49,8; -35,72</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>27,52; 42,98</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>41,99; 58,88</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; -30,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 18,69</t>
+          <t>9,1; 17,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 24,78</t>
+          <t>15,61; 24,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 0,98</t>
+          <t>-6,53; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 10,61</t>
+          <t>1,61; 11,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 15,11</t>
+          <t>5,95; 15,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -4,75</t>
+          <t>-13,29; -4,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,31</t>
+          <t>6,63; 13,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,76</t>
+          <t>11,9; 18,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -3,05</t>
+          <t>-8,87; -3,15</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,52; 145,82</t>
+          <t>54,65; 135,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,3; 195,28</t>
+          <t>93,2; 193,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 7,06</t>
+          <t>-40,28; 9,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 48,76</t>
+          <t>6,14; 52,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,0; 69,67</t>
+          <t>23,18; 69,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -22,02</t>
+          <t>-51,37; -22,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,84; 74,25</t>
+          <t>31,99; 74,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,8; 105,53</t>
+          <t>57,65; 104,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,1; -16,46</t>
+          <t>-43,06; -17,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,33</t>
+          <t>14,53; 22,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,37</t>
+          <t>13,39; 21,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -3,54</t>
+          <t>-12,85; -3,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,71</t>
+          <t>5,17; 13,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 12,81</t>
+          <t>4,61; 13,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -8,76</t>
+          <t>-15,76; -8,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,81</t>
+          <t>10,88; 16,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,99</t>
+          <t>10,07; 15,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,09; -7,18</t>
+          <t>-14,18; -7,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,82; 148,0</t>
+          <t>75,72; 149,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,08; 145,48</t>
+          <t>69,78; 139,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,37; -23,93</t>
+          <t>-70,46; -21,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 55,74</t>
+          <t>18,13; 57,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 53,32</t>
+          <t>15,88; 53,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -36,26</t>
+          <t>-55,79; -36,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,71; 83,01</t>
+          <t>46,48; 83,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,7; 78,82</t>
+          <t>43,62; 77,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,82; -35,54</t>
+          <t>-64,25; -35,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,49</t>
+          <t>10,89; 20,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,89; 27,72</t>
+          <t>17,99; 27,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -1,54</t>
+          <t>-10,17; -1,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 11,13</t>
+          <t>1,34; 11,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 21,11</t>
+          <t>11,41; 21,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,03; -12,01</t>
+          <t>-25,95; -11,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,28</t>
+          <t>7,5; 14,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,04</t>
+          <t>16,12; 23,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,14; -8,42</t>
+          <t>-16,84; -8,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,49; 119,25</t>
+          <t>49,98; 119,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,01; 161,93</t>
+          <t>80,54; 159,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,2; -9,34</t>
+          <t>-46,59; -7,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 38,78</t>
+          <t>4,25; 41,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,38; 76,13</t>
+          <t>34,57; 79,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,85; -40,8</t>
+          <t>-80,31; -40,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,04; 60,9</t>
+          <t>28,08; 61,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,55; 99,64</t>
+          <t>58,69; 99,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,13; -35,45</t>
+          <t>-66,95; -35,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,36</t>
+          <t>-1,65; 6,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,51</t>
+          <t>-0,15; 7,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -2,53</t>
+          <t>-9,57; -2,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -1,5</t>
+          <t>-9,3; -0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 2,71</t>
+          <t>-5,4; 2,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 10,88</t>
+          <t>-13,85; 9,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,44</t>
+          <t>-4,16; 1,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,1</t>
+          <t>-1,48; 4,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 4,2</t>
+          <t>-10,4; 3,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 32,8</t>
+          <t>-6,93; 34,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 38,81</t>
+          <t>-0,62; 41,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,54; -13,62</t>
+          <t>-41,56; -11,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -5,25</t>
+          <t>-29,36; -3,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 9,43</t>
+          <t>-17,0; 10,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 37,14</t>
+          <t>-45,0; 32,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 6,01</t>
+          <t>-15,7; 5,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 16,68</t>
+          <t>-5,47; 17,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 17,46</t>
+          <t>-39,65; 15,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>10,51; 14,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>13,3; 17,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -3,94</t>
+          <t>-8,92; -4,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>1,48; 6,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>5,86; 10,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -5,76</t>
+          <t>-14,21; -5,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>6,42; 9,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>9,91; 13,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -5,66</t>
+          <t>-10,67; -5,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>54,05; 86,69</t>
+          <t>54,41; 84,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>68,16; 103,49</t>
+          <t>69,88; 103,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -23,48</t>
+          <t>-47,77; -23,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,37; 22,54</t>
+          <t>5,04; 22,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,59; 37,85</t>
+          <t>20,02; 38,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,32; -20,26</t>
+          <t>-49,98; -21,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,52; 42,98</t>
+          <t>27,03; 43,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,88</t>
+          <t>41,19; 59,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-44,96; -24,1</t>
+          <t>-44,86; -23,19</t>
         </is>
       </c>
     </row>
